--- a/물자업무 자동화_테스트/Config/신품화_Config.xlsx
+++ b/물자업무 자동화_테스트/Config/신품화_Config.xlsx
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엑셀수식은 건드리시면 안됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>=LEFT(IF($N13=1,$N$11&amp;"+","")&amp;IF($O13=1,$O$11&amp;"+","")&amp;IF($P13=1,$P$11&amp;"+","")&amp;IF($Q13=1,$Q$11&amp;"+",""), LEN(IF($N13=1,$N$11&amp;"+","")&amp;IF($O13=1,$O$11&amp;"+","")&amp;IF($P13=1,$P$11&amp;"+","")&amp;IF($Q13=1,$Q$11&amp;"+","")) - 1)&amp;"교체"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +85,11 @@
   </si>
   <si>
     <t>https://erpbarcode.kt.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※주의※
+엑셀수식은 건드리시면 안됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,12 +137,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -164,22 +165,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -484,102 +623,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="57.125" customWidth="1"/>
-    <col min="3" max="3" width="68.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
